--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1186311.102994395</v>
+        <v>-1189119.918701133</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>113.9786514180869</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.3583613852394</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>127.8799231645348</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.28980726757979</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.7173697524019</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1742586451435</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>104.3201418411377</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>119.2868787402223</v>
+        <v>136.1972169735137</v>
       </c>
       <c r="H3" t="n">
         <v>101.164597667581</v>
       </c>
       <c r="I3" t="n">
-        <v>49.92971842544496</v>
+        <v>49.92971842544497</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.98666974321216</v>
+        <v>12.07633150992091</v>
       </c>
       <c r="S3" t="n">
         <v>150.3911478434578</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.689758882002977</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>95.17476721248264</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.2686478538544</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.8394148919928</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>3.738239193459895</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>313.8610885763566</v>
       </c>
       <c r="I5" t="n">
-        <v>3.882880116290138</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>118.307192660126</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.242727921694335</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>284.1966559625133</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>46.6525416177726</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.980384243200406</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>95.06427049838585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>121.3986907513294</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>222.0602598600236</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>129.2171928962052</v>
       </c>
       <c r="U16" t="n">
-        <v>59.3100580403004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>94.64226186542875</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>201.7490817309711</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>35.01782305658469</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.9309480000767</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>80.5697888787481</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>13.37642554686328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>83.71156409265949</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.07731664460587</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>180.8909947756157</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652652</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.816775256581</v>
+        <v>1545.630852625914</v>
       </c>
       <c r="C2" t="n">
-        <v>578.816775256581</v>
+        <v>1176.668335685502</v>
       </c>
       <c r="D2" t="n">
-        <v>578.816775256581</v>
+        <v>818.4026370787517</v>
       </c>
       <c r="E2" t="n">
-        <v>578.816775256581</v>
+        <v>432.6143844805075</v>
       </c>
       <c r="F2" t="n">
-        <v>167.8308704669734</v>
+        <v>425.668883731304</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>425.668883731304</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>181.872559099749</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
@@ -4331,19 +4331,19 @@
         <v>220.8886863935819</v>
       </c>
       <c r="K2" t="n">
-        <v>354.9392853474632</v>
+        <v>272.7993965290161</v>
       </c>
       <c r="L2" t="n">
-        <v>869.7254757923401</v>
+        <v>787.585586973893</v>
       </c>
       <c r="M2" t="n">
-        <v>1459.130846815137</v>
+        <v>1376.99095799669</v>
       </c>
       <c r="N2" t="n">
-        <v>2043.441415399614</v>
+        <v>1961.301526581167</v>
       </c>
       <c r="O2" t="n">
-        <v>2550.001678386294</v>
+        <v>2467.861789567847</v>
       </c>
       <c r="P2" t="n">
         <v>2626.084039162238</v>
@@ -4352,28 +4352,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980643</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="T2" t="n">
-        <v>2419.16984591761</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="U2" t="n">
-        <v>2165.458473548779</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="V2" t="n">
-        <v>1834.395586205208</v>
+        <v>2288.53883987184</v>
       </c>
       <c r="W2" t="n">
-        <v>1729.021705557594</v>
+        <v>1935.770184601726</v>
       </c>
       <c r="X2" t="n">
-        <v>1355.555947296514</v>
+        <v>1935.770184601726</v>
       </c>
       <c r="Y2" t="n">
-        <v>965.4166153207027</v>
+        <v>1545.630852625914</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>954.9726894739438</v>
+        <v>972.0538392045411</v>
       </c>
       <c r="C3" t="n">
-        <v>780.5196601928168</v>
+        <v>797.6008099234141</v>
       </c>
       <c r="D3" t="n">
-        <v>631.5852505315655</v>
+        <v>648.6664002621628</v>
       </c>
       <c r="E3" t="n">
-        <v>472.34779552611</v>
+        <v>489.4289452567074</v>
       </c>
       <c r="F3" t="n">
-        <v>325.813237552995</v>
+        <v>342.8943872835923</v>
       </c>
       <c r="G3" t="n">
         <v>205.3214408456997</v>
@@ -4407,52 +4407,52 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>159.179021593283</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7879007003857</v>
+        <v>361.3097986467155</v>
       </c>
       <c r="L3" t="n">
-        <v>944.1550196478526</v>
+        <v>837.6769175941823</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.288036988965</v>
+        <v>1445.554098260752</v>
       </c>
       <c r="N3" t="n">
-        <v>1817.960931220232</v>
+        <v>1610.678041891901</v>
       </c>
       <c r="O3" t="n">
-        <v>2336.720980947117</v>
+        <v>2129.438091618786</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.790446915861</v>
+        <v>2528.785698541067</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2605.76651259356</v>
+        <v>2622.847662324157</v>
       </c>
       <c r="S3" t="n">
-        <v>2453.856262246632</v>
+        <v>2470.93741197723</v>
       </c>
       <c r="T3" t="n">
-        <v>2256.336732439403</v>
+        <v>2273.41788217</v>
       </c>
       <c r="U3" t="n">
-        <v>2028.189290424443</v>
+        <v>2045.27044015504</v>
       </c>
       <c r="V3" t="n">
-        <v>1793.0371821927</v>
+        <v>1810.118331923297</v>
       </c>
       <c r="W3" t="n">
-        <v>1538.799825464499</v>
+        <v>1555.880975195096</v>
       </c>
       <c r="X3" t="n">
-        <v>1330.948325258966</v>
+        <v>1348.029474989563</v>
       </c>
       <c r="Y3" t="n">
-        <v>1123.188026494012</v>
+        <v>1140.269176224609</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.614013122006</v>
+        <v>518.6436893777658</v>
       </c>
       <c r="C4" t="n">
-        <v>200.614013122006</v>
+        <v>349.7075064498589</v>
       </c>
       <c r="D4" t="n">
-        <v>200.614013122006</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F4" t="n">
         <v>52.70091953961285</v>
@@ -4492,46 +4492,46 @@
         <v>141.1905938405665</v>
       </c>
       <c r="L4" t="n">
-        <v>309.9533456201951</v>
+        <v>309.953345620195</v>
       </c>
       <c r="M4" t="n">
         <v>498.2791281824881</v>
       </c>
       <c r="N4" t="n">
-        <v>687.5615609861241</v>
+        <v>687.5615609861239</v>
       </c>
       <c r="O4" t="n">
-        <v>846.3782284153087</v>
+        <v>846.3782284153085</v>
       </c>
       <c r="P4" t="n">
-        <v>958.7526415992057</v>
+        <v>958.7526415992054</v>
       </c>
       <c r="Q4" t="n">
-        <v>953.0054104052633</v>
+        <v>958.7526415992054</v>
       </c>
       <c r="R4" t="n">
-        <v>856.8692819078061</v>
+        <v>958.7526415992054</v>
       </c>
       <c r="S4" t="n">
-        <v>647.5070113483572</v>
+        <v>958.7526415992054</v>
       </c>
       <c r="T4" t="n">
-        <v>421.4065922655361</v>
+        <v>958.7526415992054</v>
       </c>
       <c r="U4" t="n">
-        <v>421.4065922655361</v>
+        <v>958.7526415992054</v>
       </c>
       <c r="V4" t="n">
-        <v>421.4065922655361</v>
+        <v>704.0681533933185</v>
       </c>
       <c r="W4" t="n">
-        <v>421.4065922655361</v>
+        <v>704.0681533933185</v>
       </c>
       <c r="X4" t="n">
-        <v>421.4065922655361</v>
+        <v>700.2921542080055</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.614013122006</v>
+        <v>700.2921542080055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.841935347857</v>
+        <v>878.3806881546661</v>
       </c>
       <c r="C5" t="n">
-        <v>798.8794184074452</v>
+        <v>509.4181712142544</v>
       </c>
       <c r="D5" t="n">
-        <v>798.8794184074452</v>
+        <v>509.4181712142544</v>
       </c>
       <c r="E5" t="n">
-        <v>798.8794184074452</v>
+        <v>509.4181712142544</v>
       </c>
       <c r="F5" t="n">
-        <v>387.8935136178376</v>
+        <v>502.472670465051</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8461358946691</v>
+        <v>489.4252927418825</v>
       </c>
       <c r="H5" t="n">
-        <v>56.62302066717865</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>784.1365874146478</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>970.8360002400555</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N5" t="n">
-        <v>1598.143668299902</v>
+        <v>2289.241019842399</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2459.410045159359</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2225.139236222622</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V5" t="n">
-        <v>1894.076348879051</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W5" t="n">
-        <v>1541.307693608937</v>
+        <v>2028.585618455679</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.841935347857</v>
+        <v>1655.1198601946</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.841935347857</v>
+        <v>1264.980528218788</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>339.049812088183</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>843.4113519543016</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>1483.956701421406</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N6" t="n">
-        <v>2136.130580724115</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O6" t="n">
-        <v>2295.642893392876</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.01680632920309</v>
+        <v>344.3323652074184</v>
       </c>
       <c r="C7" t="n">
-        <v>60.01680632920309</v>
+        <v>344.3323652074184</v>
       </c>
       <c r="D7" t="n">
-        <v>60.01680632920309</v>
+        <v>224.8301503992104</v>
       </c>
       <c r="E7" t="n">
-        <v>60.01680632920309</v>
+        <v>224.8301503992104</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961285</v>
+        <v>224.8301503992104</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961285</v>
+        <v>224.8301503992104</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4753,22 +4753,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U7" t="n">
-        <v>763.4834245766374</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V7" t="n">
-        <v>508.7989363707505</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W7" t="n">
-        <v>508.7989363707505</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="X7" t="n">
-        <v>280.8093854727332</v>
+        <v>344.3323652074184</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.01680632920309</v>
+        <v>344.3323652074184</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2431.707160065579</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="C8" t="n">
-        <v>2062.744643125167</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="D8" t="n">
-        <v>1704.478944518417</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.690691920173</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7047871305651</v>
+        <v>756.8560305582494</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669925</v>
+        <v>339.7682487946768</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>616.7309383942948</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1248.448749377606</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1442.782962269589</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>1989.944167036666</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2419.25921337596</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4835,19 +4835,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.830939477471</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V8" t="n">
-        <v>2431.707160065579</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W8" t="n">
-        <v>2431.707160065579</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X8" t="n">
-        <v>2431.707160065579</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="Y8" t="n">
-        <v>2431.707160065579</v>
+        <v>1167.841935347857</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>528.1332110007638</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1168.678560467868</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
-        <v>1820.852439770578</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345.8194391699032</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="C10" t="n">
-        <v>345.8194391699032</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="D10" t="n">
-        <v>345.8194391699032</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="E10" t="n">
-        <v>345.8194391699032</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="F10" t="n">
-        <v>345.8194391699032</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="G10" t="n">
-        <v>177.2125941652866</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="H10" t="n">
-        <v>177.2125941652866</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961285</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>441.8439548248384</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W10" t="n">
-        <v>345.8194391699032</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X10" t="n">
-        <v>345.8194391699032</v>
+        <v>280.5443918580929</v>
       </c>
       <c r="Y10" t="n">
-        <v>345.8194391699032</v>
+        <v>59.75181271456276</v>
       </c>
     </row>
     <row r="11">
@@ -5030,25 +5030,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>763.7541388327652</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>613.6374994204294</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>465.7244058380363</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>465.7244058380363</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>298.5283065529163</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.10824923517</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258111</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1820.203491470209</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5267,13 +5267,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2066.540128420693</v>
       </c>
       <c r="U16" t="n">
-        <v>1984.597634722449</v>
+        <v>1777.464901764891</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.913146516562</v>
+        <v>1522.780413559004</v>
       </c>
       <c r="W16" t="n">
-        <v>1440.495976479601</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X16" t="n">
-        <v>1212.506425581584</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y16" t="n">
-        <v>991.7138464380538</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543961</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>189.4149073564858</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>986.1256051221279</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C22" t="n">
-        <v>817.189422194221</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>667.0727827818853</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1616.556199993915</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1388.566649095898</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1167.774069952368</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2112.505410040436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1823.430183384634</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1279.328525141787</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
         <v>631.7012443408906</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V31" t="n">
-        <v>1905.631426649717</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W31" t="n">
-        <v>1616.214256612757</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X31" t="n">
-        <v>1388.224705714739</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.432126571209</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150018</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7084,22 +7084,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.3734194384019</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,16 +7424,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,34 +7567,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605118</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2206.395003844405</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>82.96958466509798</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7994,7 +7994,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>82.96958466509821</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>18.53739690235815</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>88.18570685559897</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>100.9911749831156</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>194.184117423824</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>30.21968338400237</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>101.092748513452</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,13 +8307,13 @@
         <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.6289329122091</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>153.4703251769741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.1603092314733</v>
       </c>
       <c r="H2" t="n">
-        <v>317.5336584557159</v>
+        <v>76.1752970704764</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>160.1994850723023</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>29.99373430126498</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1742586451435</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>244.9208268762753</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>16.91033823329127</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0299597861359</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.5499954250393</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.90768957642351</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>221.9714161955773</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.89602209489443</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>64.12421452922058</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462247</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>88.18825743108309</v>
       </c>
       <c r="U16" t="n">
-        <v>226.8744163489437</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>70.88187642684009</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>42.65370535201814</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>205.614685510496</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.6938862346288</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7546635373314</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0.1352912260288974</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1099477.502388684</v>
+        <v>1099477.502388685</v>
       </c>
     </row>
     <row r="3">
@@ -26314,7 +26314,7 @@
         <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
@@ -26326,10 +26326,10 @@
         <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302513</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>734303.4749798379</v>
+        <v>734303.4749798378</v>
       </c>
       <c r="C3" t="n">
-        <v>55134.27828024318</v>
+        <v>55134.27828024323</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157137</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>189891.8124216189</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670748</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707373</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.42449670739</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707312</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.424496707368</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707372</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707371</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707382</v>
-      </c>
       <c r="L4" t="n">
-        <v>14888.28375980087</v>
+        <v>14888.2837598009</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.2837598009</v>
       </c>
       <c r="N4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="P4" t="n">
         <v>14888.28375980085</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980078</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14888.28375980082</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85298.15182533274</v>
+        <v>85298.15182533272</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786198.307285957</v>
+        <v>-786558.3903016745</v>
       </c>
       <c r="C6" t="n">
         <v>-146909.7703198738</v>
       </c>
       <c r="D6" t="n">
-        <v>-91775.49203963063</v>
+        <v>-91775.49203963066</v>
       </c>
       <c r="E6" t="n">
-        <v>-702100.3166669477</v>
+        <v>-702135.0545923834</v>
       </c>
       <c r="F6" t="n">
-        <v>73588.03060963705</v>
+        <v>73553.29268420121</v>
       </c>
       <c r="G6" t="n">
-        <v>73588.03060963681</v>
+        <v>73553.29268420124</v>
       </c>
       <c r="H6" t="n">
-        <v>73588.03060963681</v>
+        <v>73553.29268420118</v>
       </c>
       <c r="I6" t="n">
-        <v>73588.03060963687</v>
+        <v>73553.29268420109</v>
       </c>
       <c r="J6" t="n">
-        <v>-98772.96179064397</v>
+        <v>-98807.6997160796</v>
       </c>
       <c r="K6" t="n">
-        <v>73588.03060963684</v>
+        <v>73553.29268420118</v>
       </c>
       <c r="L6" t="n">
-        <v>47254.28061211557</v>
+        <v>47254.2806121155</v>
       </c>
       <c r="M6" t="n">
-        <v>-61395.5982099664</v>
+        <v>-61395.59820996643</v>
       </c>
       <c r="N6" t="n">
+        <v>66681.99860574742</v>
+      </c>
+      <c r="O6" t="n">
         <v>66681.99860574739</v>
       </c>
-      <c r="O6" t="n">
-        <v>66681.99860574746</v>
-      </c>
       <c r="P6" t="n">
-        <v>66681.9986057474</v>
+        <v>66681.99860574736</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.015790261611063e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.015790261611063e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608703</v>
+        <v>532.9290355608701</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-6.487541028015594e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608703</v>
+        <v>532.9290355608701</v>
       </c>
       <c r="C3" t="n">
-        <v>60.54706477719484</v>
+        <v>60.5470647771949</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>299.1816578133863</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.8799231645347</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.28980726757976</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>160.1994850723023</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>183.7236354511369</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16.91033823329133</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0299597861359</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.6828348553325</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>126.5499954250393</v>
       </c>
       <c r="J4" t="n">
-        <v>25.41509635344511</v>
+        <v>25.41509635344512</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.689758882002991</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.0824567889061</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>207.2686478538544</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.8394148919928</v>
       </c>
       <c r="U4" t="n">
         <v>286.2666101070915</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.179795498858994</v>
       </c>
       <c r="I5" t="n">
-        <v>114.6131607776002</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>30.30828035808638</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>138.1783201012369</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>30.84422811270224</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>281.0997168523623</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>10.71545763856858</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>191.4587278382052</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>5.498539697631107e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.8421709430404e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.8421709430404e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.142428283661789</v>
+        <v>2.142428283661788</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9411436600513</v>
+        <v>21.94114366005129</v>
       </c>
       <c r="I2" t="n">
-        <v>82.59596640587118</v>
+        <v>82.59596640587115</v>
       </c>
       <c r="J2" t="n">
-        <v>181.8359225404399</v>
+        <v>181.8359225404398</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5249117878435</v>
+        <v>272.5249117878434</v>
       </c>
       <c r="L2" t="n">
-        <v>338.091251373958</v>
+        <v>338.0912513739579</v>
       </c>
       <c r="M2" t="n">
-        <v>376.1916603635283</v>
+        <v>376.1916603635282</v>
       </c>
       <c r="N2" t="n">
-        <v>382.2788347244824</v>
+        <v>382.2788347244823</v>
       </c>
       <c r="O2" t="n">
-        <v>360.9750634788204</v>
+        <v>360.9750634788203</v>
       </c>
       <c r="P2" t="n">
-        <v>308.08386522592</v>
+        <v>308.0838652259199</v>
       </c>
       <c r="Q2" t="n">
-        <v>231.3581523172821</v>
+        <v>231.358152317282</v>
       </c>
       <c r="R2" t="n">
         <v>134.5793106735699</v>
       </c>
       <c r="S2" t="n">
-        <v>48.82058451394305</v>
+        <v>48.82058451394304</v>
       </c>
       <c r="T2" t="n">
-        <v>9.378479811729484</v>
+        <v>9.378479811729481</v>
       </c>
       <c r="U2" t="n">
         <v>0.171394262692943</v>
@@ -31124,43 +31124,43 @@
         <v>11.07084656891544</v>
       </c>
       <c r="I3" t="n">
-        <v>39.46691442597012</v>
+        <v>39.46691442597011</v>
       </c>
       <c r="J3" t="n">
-        <v>108.3002297643086</v>
+        <v>108.3002297643085</v>
       </c>
       <c r="K3" t="n">
         <v>185.1023424740053</v>
       </c>
       <c r="L3" t="n">
-        <v>248.8929425041593</v>
+        <v>248.8929425041592</v>
       </c>
       <c r="M3" t="n">
         <v>290.4463243806742</v>
       </c>
       <c r="N3" t="n">
-        <v>298.1335743370193</v>
+        <v>298.1335743370192</v>
       </c>
       <c r="O3" t="n">
-        <v>272.7339753968918</v>
+        <v>272.7339753968917</v>
       </c>
       <c r="P3" t="n">
-        <v>218.8930599080111</v>
+        <v>218.893059908011</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.3242136883356</v>
+        <v>146.3242136883355</v>
       </c>
       <c r="R3" t="n">
-        <v>71.17116440943097</v>
+        <v>71.17116440943096</v>
       </c>
       <c r="S3" t="n">
-        <v>21.29202326038004</v>
+        <v>21.29202326038003</v>
       </c>
       <c r="T3" t="n">
-        <v>4.620394185664525</v>
+        <v>4.620394185664524</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07541448616427412</v>
+        <v>0.07541448616427411</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,37 +31197,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9610195723228807</v>
+        <v>0.9610195723228805</v>
       </c>
       <c r="H4" t="n">
-        <v>8.544337652107073</v>
+        <v>8.544337652107071</v>
       </c>
       <c r="I4" t="n">
         <v>28.900479502219</v>
       </c>
       <c r="J4" t="n">
-        <v>67.94408376322767</v>
+        <v>67.94408376322765</v>
       </c>
       <c r="K4" t="n">
-        <v>111.6530012207856</v>
+        <v>111.6530012207855</v>
       </c>
       <c r="L4" t="n">
-        <v>142.8774007797127</v>
+        <v>142.8774007797126</v>
       </c>
       <c r="M4" t="n">
         <v>150.6441862323948</v>
       </c>
       <c r="N4" t="n">
-        <v>147.0622041901006</v>
+        <v>147.0622041901005</v>
       </c>
       <c r="O4" t="n">
-        <v>135.835748277056</v>
+        <v>135.8357482770559</v>
       </c>
       <c r="P4" t="n">
         <v>116.2309490016691</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.47228436969141</v>
+        <v>80.47228436969139</v>
       </c>
       <c r="R4" t="n">
         <v>43.21093458826333</v>
@@ -31236,7 +31236,7 @@
         <v>16.74795018311783</v>
       </c>
       <c r="T4" t="n">
-        <v>4.106174536288671</v>
+        <v>4.10617453628867</v>
       </c>
       <c r="U4" t="n">
         <v>0.05241924939942991</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>316.0872899694776</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>560.1612034965808</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>530.4152909475304</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>235.5705495535876</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>248.5245325067415</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,13 +34699,13 @@
         <v>169.8866331858273</v>
       </c>
       <c r="K2" t="n">
-        <v>135.4046454079609</v>
+        <v>52.43506074286285</v>
       </c>
       <c r="L2" t="n">
-        <v>519.9860509544212</v>
+        <v>519.9860509544211</v>
       </c>
       <c r="M2" t="n">
-        <v>595.3589606290881</v>
+        <v>595.358960629088</v>
       </c>
       <c r="N2" t="n">
         <v>590.2126955398755</v>
@@ -34714,10 +34714,10 @@
         <v>511.677033319879</v>
       </c>
       <c r="P2" t="n">
-        <v>76.85086947065042</v>
+        <v>159.8204541357486</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.052462442832621</v>
+        <v>9.052462442832564</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107.5536384380507</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>311.7261405122249</v>
       </c>
       <c r="L3" t="n">
-        <v>481.1789080277443</v>
+        <v>481.1789080277442</v>
       </c>
       <c r="M3" t="n">
-        <v>236.4979973142549</v>
+        <v>614.0173542086558</v>
       </c>
       <c r="N3" t="n">
-        <v>646.1342365972396</v>
+        <v>166.7918622536859</v>
       </c>
       <c r="O3" t="n">
         <v>524.0000502291768</v>
       </c>
       <c r="P3" t="n">
-        <v>84.91865249368081</v>
+        <v>403.3814211336179</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.4197273381631</v>
+        <v>107.3336145854297</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>89.38350939490272</v>
+        <v>89.38350939490269</v>
       </c>
       <c r="L4" t="n">
         <v>170.4674260400288</v>
@@ -34866,13 +34866,13 @@
         <v>190.2280631942354</v>
       </c>
       <c r="N4" t="n">
-        <v>191.1943765693292</v>
+        <v>191.1943765693291</v>
       </c>
       <c r="O4" t="n">
         <v>160.4208761910956</v>
       </c>
       <c r="P4" t="n">
-        <v>113.5095082665626</v>
+        <v>113.5095082665625</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>366.0720217843892</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>142.0725371714029</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>169.3834754461359</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
@@ -35027,13 +35027,13 @@
         <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.9664278835173</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>292.0860807483821</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496672</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>173.4910455250332</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>418.0271695745625</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>399.073578864197</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>92.97430510914316</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.501032152577</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>114.5501250924112</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
